--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s0_res_fix.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>800.6122511118817</v>
+        <v>126.4410498000232</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.69225111188039</v>
+        <v>50.44104980002316</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.037400597647794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.037400597647794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>538.5300000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.39</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -885,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>20.63858450874014</v>
       </c>
     </row>
     <row r="4">
@@ -901,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.37739353073907</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>22.7338617375427</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.24751652694442</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.56439651897804</v>
+        <v>25.18700298823897</v>
       </c>
     </row>
     <row r="9">
@@ -941,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>28.16166055474291</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>64.12500000000065</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>69.98000000000064</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>68.84500000000065</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.99000000000066</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>70.99000000000066</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>106.2600000000008</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>109.8650000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>107.7250000000008</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>111.9600000000008</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>203.335</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>183.955</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>202.29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>188.46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>199.3199999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36499999999999</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.53999999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>141.3450000000004</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>157.3250000000005</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>160.3250000000004</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>162.85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4050000000005</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>203.335</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>183.955</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>202.29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>188.46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>199.3199999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>141.3450000000004</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>157.3250000000005</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>160.3250000000004</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>162.85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4050000000005</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>106.2600000000008</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>109.8650000000008</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>107.7250000000008</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>111.9600000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>110.95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>53.33500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.95500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>52.28999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>38.46000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>49.31999999999934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1640,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.325000000000458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>10.32500000000043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.40500000000045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1775,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1786,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1797,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1808,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1819,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1830,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1841,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1852,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1874,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2053,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2078,105 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
